--- a/_Resources/配置表/游戏配置表/C_场景事件表.xlsx
+++ b/_Resources/配置表/游戏配置表/C_场景事件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11655"/>
+    <workbookView windowWidth="12225" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="SceneEvent" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>List&lt;int&gt;</t>
+    <t>List&lt;float&gt;</t>
   </si>
   <si>
     <t>ID</t>
@@ -77,7 +77,7 @@
     <t>相爱</t>
   </si>
   <si>
-    <t>1,1,1,2,2,2</t>
+    <t>-0.47,-0.13,0.37,-0.05</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +757,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,8 +1133,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1233,153 +1236,153 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" ht="16.5" spans="1:5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="16.5" spans="1:5">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" ht="16.5" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" ht="16.5" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
